--- a/Вычислительная математика/Практическая работа 3/Практическая работа 3.xlsx
+++ b/Вычислительная математика/Практическая работа 3/Практическая работа 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,128 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Аналитическое решение ОДУ: </t>
+  </si>
+  <si>
+    <t>n =</t>
+  </si>
+  <si>
+    <t>h =</t>
+  </si>
+  <si>
+    <t>a =</t>
+  </si>
+  <si>
+    <t>Прогоночные коэффициенты</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>u(аналитич.)</t>
+  </si>
+  <si>
+    <t>Погрешность</t>
+  </si>
+  <si>
+    <t>c =</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Трёхдиагональная матрица</t>
+  </si>
+  <si>
+    <t>u1</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t>u4</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>u6</t>
+  </si>
+  <si>
+    <t>u7</t>
+  </si>
+  <si>
+    <t>u8</t>
+  </si>
+  <si>
+    <t>u9</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Начальные значения и аналитическое решение ОДУ II-го порядка:</t>
+  </si>
+  <si>
+    <t>u(a) = A</t>
+  </si>
+  <si>
+    <t>u(b) = B</t>
+  </si>
+  <si>
+    <t>p(x) =</t>
+  </si>
+  <si>
+    <t>q(x) =</t>
+  </si>
+  <si>
+    <t>A =</t>
+  </si>
+  <si>
+    <t>B =</t>
+  </si>
+  <si>
+    <t>f(x) =</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>Количество разбиений</t>
+  </si>
+  <si>
+    <t>Шаг</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +147,246 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95C7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF85"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,11 +395,136 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,10 +539,1505 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Графики функции</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Метод прогонки</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$12:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12160225073642895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26752495162014367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44115973512980061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64630535694137503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88722478877608568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1687089030666309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4961465120939215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.875600179810893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3138867928740989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8186613472629571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF8A-446A-B45A-E8433B0506EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Аналитический метод</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$12:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$12:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11068332190079433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24559924723903159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40934117973355399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60688236188304534</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84355004662944555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1249861257133058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4570920864434889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8459560437928282</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2977594920880176</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8186613472629567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF8A-446A-B45A-E8433B0506EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1975038272"/>
+        <c:axId val="1975046592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1975038272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975046592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1975046592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1975038272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1362847</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>43207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2110235" cy="221160"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616B3607-E08A-435C-893F-4FEA3BC668E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5779337" y="43207"/>
+              <a:ext cx="2110235" cy="221160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑝</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>′</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑞</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{616B3607-E08A-435C-893F-4FEA3BC668E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5779337" y="43207"/>
+              <a:ext cx="2110235" cy="221160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢^′′+𝑝(𝑥) 𝑢^′+𝑞(𝑥)𝑢=𝑓(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ru-RU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>62206</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1129138</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2597022" y="1143000"/>
+          <a:ext cx="2948606" cy="194388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>678492</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459287</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>53236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +2075,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +2115,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +2147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +2297,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="18" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7">
+        <f>-EXP(1) * COS(1) + EXP(1) * SIN(1) + 1 + 1</f>
+        <v>2.8186613472629571</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>10</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12">
+        <f>(F3-D3)/B8</f>
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="14">
+        <f xml:space="preserve"> 1 - B3 * B9 / 2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="14">
+        <f xml:space="preserve"> B9 ^ 2 * B4 - 2</f>
+        <v>-1.98</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="20">
+        <f xml:space="preserve"> 1 + B3 * B9 / 2</f>
+        <v>0.9</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="21">
+        <v>0</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="25">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <f>-EXP(B12) * COS(B12) + EXP(B12) * SIN(B12) + B12 + 1</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <f>ABS(E12-F12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="21">
+        <v>1</v>
+      </c>
+      <c r="B13" s="22">
+        <f t="shared" ref="B13:B22" si="0">B12 + $B$9</f>
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="28">
+        <f>-J11/J10</f>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="D13" s="29">
+        <f>R14/J10</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <f t="shared" ref="E13:E21" si="1">C13 * E14 + D13</f>
+        <v>0.12160225073642895</v>
+      </c>
+      <c r="F13" s="26">
+        <f t="shared" ref="F13:F22" si="2">-EXP(B13) * COS(B13) + EXP(B13) * SIN(B13) + B13 + 1</f>
+        <v>0.11068332190079433</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" ref="G13:G22" si="3">ABS(E13-F13)</f>
+        <v>1.0918928835634625E-2</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="22">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="28">
+        <f t="shared" ref="C14:C20" si="4">-$J$11/($J$10 + $J$9 * C13)</f>
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="D14" s="29">
+        <f t="shared" ref="D14:D21" si="5">(R15-$J$9*D13) / ($J$10 + $J$9 * C13)</f>
+        <v>-7.478602831134753E-4</v>
+      </c>
+      <c r="E14" s="30">
+        <f t="shared" si="1"/>
+        <v>0.26752495162014367</v>
+      </c>
+      <c r="F14" s="26">
+        <f t="shared" si="2"/>
+        <v>0.24559924723903159</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" si="3"/>
+        <v>2.1925704381112077E-2</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="J14" s="35">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="K14" s="35">
+        <v>0</v>
+      </c>
+      <c r="L14" s="35">
+        <v>0</v>
+      </c>
+      <c r="M14" s="35">
+        <v>0</v>
+      </c>
+      <c r="N14" s="35">
+        <v>0</v>
+      </c>
+      <c r="O14" s="35">
+        <v>0</v>
+      </c>
+      <c r="P14" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="35">
+        <v>0</v>
+      </c>
+      <c r="R14" s="36">
+        <f>$B$9^2 * (-EXP(B12) * COS(B12) + EXP(B12) * SIN(B12) + B12 + 1) - J9 * D4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="21">
+        <v>3</v>
+      </c>
+      <c r="B15" s="22">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C15" s="28">
+        <f t="shared" si="4"/>
+        <v>0.686456400742115</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" si="5"/>
+        <v>-2.5007139765236062E-3</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="1"/>
+        <v>0.44115973512980061</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" si="2"/>
+        <v>0.40934117973355399</v>
+      </c>
+      <c r="G15" s="31">
+        <f t="shared" si="3"/>
+        <v>3.1818555396246617E-2</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J15" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="K15" s="34">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0</v>
+      </c>
+      <c r="M15" s="34">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <v>0</v>
+      </c>
+      <c r="O15" s="34">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>0</v>
+      </c>
+      <c r="R15" s="36">
+        <f>$B$9^2 * (-EXP(B13) * COS(B13) + EXP(B13) * SIN(B13) + B13 + 1)</f>
+        <v>1.1068332190079435E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21">
+        <v>4</v>
+      </c>
+      <c r="B16" s="22">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C16" s="28">
+        <f t="shared" si="4"/>
+        <v>0.73475508163945369</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" si="5"/>
+        <v>-5.5875651683449509E-3</v>
+      </c>
+      <c r="E16" s="30">
+        <f t="shared" si="1"/>
+        <v>0.64630535694137503</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="2"/>
+        <v>0.60688236188304534</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="3"/>
+        <v>3.9422995058329691E-2</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K16" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="L16" s="34">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="M16" s="34">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+      <c r="O16" s="34">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="34">
+        <v>0</v>
+      </c>
+      <c r="R16" s="36">
+        <f t="shared" ref="R16:R21" si="6">$B$9^2 * (-EXP(B14) * COS(B14) + EXP(B14) * SIN(B14) + B14 + 1)</f>
+        <v>2.4559924723903163E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="21">
+        <v>5</v>
+      </c>
+      <c r="B17" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="28">
+        <f t="shared" si="4"/>
+        <v>0.76806920556920566</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" si="5"/>
+        <v>-1.042452994395922E-2</v>
+      </c>
+      <c r="E17" s="30">
+        <f t="shared" si="1"/>
+        <v>0.88722478877608568</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="2"/>
+        <v>0.84355004662944555</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="3"/>
+        <v>4.3674742146640133E-2</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="J17" s="34">
+        <v>0</v>
+      </c>
+      <c r="K17" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L17" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="M17" s="34">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0</v>
+      </c>
+      <c r="O17" s="34">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>0</v>
+      </c>
+      <c r="R17" s="36">
+        <f t="shared" si="6"/>
+        <v>4.0934117973355404E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="21">
+        <v>6</v>
+      </c>
+      <c r="B18" s="22">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="C18" s="28">
+        <f t="shared" si="4"/>
+        <v>0.79286500858143438</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="5"/>
+        <v>-1.7533314083799288E-2</v>
+      </c>
+      <c r="E18" s="30">
+        <f t="shared" si="1"/>
+        <v>1.1687089030666309</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="2"/>
+        <v>1.1249861257133058</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="3"/>
+        <v>4.3722777353325082E-2</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
+        <v>0</v>
+      </c>
+      <c r="K18" s="34">
+        <v>0</v>
+      </c>
+      <c r="L18" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M18" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="N18" s="34">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="34">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>0</v>
+      </c>
+      <c r="R18" s="36">
+        <f t="shared" si="6"/>
+        <v>6.0688236188304549E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21">
+        <v>7</v>
+      </c>
+      <c r="B19" s="22">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="28">
+        <f t="shared" si="4"/>
+        <v>0.81238545493230863</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" si="5"/>
+        <v>-2.756379325287063E-2</v>
+      </c>
+      <c r="E19" s="30">
+        <f t="shared" si="1"/>
+        <v>1.4961465120939215</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="2"/>
+        <v>1.4570920864434889</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="3"/>
+        <v>3.90544256504326E-2</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="34">
+        <v>0</v>
+      </c>
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="34">
+        <v>0</v>
+      </c>
+      <c r="L19" s="34">
+        <v>0</v>
+      </c>
+      <c r="M19" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N19" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="O19" s="34">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="P19" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>0</v>
+      </c>
+      <c r="R19" s="36">
+        <f t="shared" si="6"/>
+        <v>8.4355004662944565E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="21">
+        <v>8</v>
+      </c>
+      <c r="B20" s="22">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C20" s="28">
+        <f t="shared" si="4"/>
+        <v>0.82844245487062962</v>
+      </c>
+      <c r="D20" s="29">
+        <f t="shared" si="5"/>
+        <v>-4.1321875170453583E-2</v>
+      </c>
+      <c r="E20" s="30">
+        <f t="shared" si="1"/>
+        <v>1.875600179810893</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="2"/>
+        <v>1.8459560437928282</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="3"/>
+        <v>2.9644136018064815E-2</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="34">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="34">
+        <v>0</v>
+      </c>
+      <c r="L20" s="34">
+        <v>0</v>
+      </c>
+      <c r="M20" s="34">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O20" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="P20" s="34">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="Q20" s="34">
+        <v>0</v>
+      </c>
+      <c r="R20" s="36">
+        <f t="shared" si="6"/>
+        <v>1.124986125713306E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="21">
+        <v>9</v>
+      </c>
+      <c r="B21" s="22">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0</v>
+      </c>
+      <c r="D21" s="29">
+        <f t="shared" si="5"/>
+        <v>2.3138867928740989</v>
+      </c>
+      <c r="E21" s="30">
+        <f t="shared" si="1"/>
+        <v>2.3138867928740989</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="2"/>
+        <v>2.2977594920880176</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="3"/>
+        <v>1.6127300786081378E-2</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="34">
+        <v>0</v>
+      </c>
+      <c r="J21" s="34">
+        <v>0</v>
+      </c>
+      <c r="K21" s="34">
+        <v>0</v>
+      </c>
+      <c r="L21" s="34">
+        <v>0</v>
+      </c>
+      <c r="M21" s="34">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34">
+        <v>0</v>
+      </c>
+      <c r="O21" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P21" s="34">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="Q21" s="37">
+        <f>J11</f>
+        <v>0.9</v>
+      </c>
+      <c r="R21" s="36">
+        <f t="shared" si="6"/>
+        <v>1.4570920864434891E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="21">
+        <v>10</v>
+      </c>
+      <c r="B22" s="22">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="30">
+        <f>F4</f>
+        <v>2.8186613472629571</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="2"/>
+        <v>2.8186613472629567</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" si="3"/>
+        <v>4.4408920985006262E-16</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="34">
+        <v>0</v>
+      </c>
+      <c r="J22" s="34">
+        <v>0</v>
+      </c>
+      <c r="K22" s="34">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0</v>
+      </c>
+      <c r="M22" s="34">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0</v>
+      </c>
+      <c r="O22" s="34">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <f>J9</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q22" s="37">
+        <f>J10</f>
+        <v>-1.98</v>
+      </c>
+      <c r="R22" s="36">
+        <f>$B$9^2 * (-EXP(B20) * COS(B20) + EXP(B20) * SIN(B20) + B20 + 1) - J11 * F4</f>
+        <v>-2.5183356520987332</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>